--- a/biology/Neurosciences/Prosencéphale/Prosencéphale.xlsx
+++ b/biology/Neurosciences/Prosencéphale/Prosencéphale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prosenc%C3%A9phale</t>
+          <t>Prosencéphale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En anatomie des chordés, le prosencéphale fait partie de l’encéphale. Le prosencéphale, le mésencéphale et le rhombencéphale sont trois vésicules qui se développent pendant la neurogenèse du cerveau des vertébrés.
 Aussi appelé cerveau antérieur, le prosencéphale se subdivise en diencéphale et télencéphale. Le prosencéphale provient du dessus du tube neural et est la plus rostrale des trois vésicules.
